--- a/biology/Botanique/Palicourea_alba/Palicourea_alba.xlsx
+++ b/biology/Botanique/Palicourea_alba/Palicourea_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palicourea alba est une espèce herbacée d'Amérique du sud, appartenant à la famille des Rubiaceae.
-Elle est connue en Guyane sous les noms de radié grage, radié serpent, feuille grage (Créole), yawa nami (Wayãpi), zaza patu (Saramaka)[5], et au Suriname sous les noms de Kibri wiwiri ("plante qui cache" en Sranan tongo)[6], Azau zapato ou Zãu zãu patu ("pied d'éléphant" en Saramaca)[7].
+Elle est connue en Guyane sous les noms de radié grage, radié serpent, feuille grage (Créole), yawa nami (Wayãpi), zaza patu (Saramaka), et au Suriname sous les noms de Kibri wiwiri ("plante qui cache" en Sranan tongo), Azau zapato ou Zãu zãu patu ("pied d'éléphant" en Saramaca).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Palicourea alba est une herbe rampante, s'enracinant aux noeuds, villeuse. 
 Les feuilles mesurent 3,5-10 × 2-8,5 cm, avec des pétioles longs de 4-32 mm.
@@ -521,10 +535,10 @@
 Les fleurs sont sessiles, avec le limbe du calice long de 1,5-2 mm, profondément lobé.
 La corolle de couleur crème, comporte un tube long de 5,5-6 mm, et des lobes d'environ 1,5 mm de long.
 Le fruit ellipsoïde, bleu, mesure 4-9 × 4-7 mm.
-Il comporte 2 pyrènes ventralement avec une crête longitudinale basse, dorsalement lisse[8].
+Il comporte 2 pyrènes ventralement avec une crête longitudinale basse, dorsalement lisse.
 En 1953, Lemée en propose la description suivante de Palicourea alba :
 « [Gamotopea] alba Brem. (Tapogomea a. Aubl., Cephælis a. W.). Herbe rampante aux nœuds et entre les nœuds, à tiges poilues ; feuilles de 0,02-0,04 sur 12~28 mm., à pétiole poilu, ovales-elliptiques obtuses ou mucronulées, à base cordée ou subcordée, d'abord couvertes en dessus d'une dense pubescense de longs poils jaunâtres puis à pubescence éparse, pubescentes-grisâtres en dessous, à 9-11 paires de nervures saillantes sur les 2 faces, stipules à lob es de 2 mm., ciliés ; pédoncules, peu poilus bractées et bractéoles ciliées, calice à segments glabres ou ciliés au sommet, corolle blanche de 8 mm., glabre en dedans, ovaire glabre, style de 7 mm., glabre ; drupe de 5 mm. sur 3, ovoïde bleue. - Maroni : Nouveau chantier (R. Benoist). »
-— Albert Lemée, 1953.[9]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -552,9 +566,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea alba est présent de la Colombie au Brésil, en passant par le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur et le Pérou[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea alba est présent de la Colombie au Brésil, en passant par le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur et le Pérou.
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palicourea alba est une petite herbe rampante mimétique[10] dont les feuilles brun violet (en raison de la présence d'anthocyanes[11]) ont une couleur très proche de celle de la litière en décomposition, qui pousse dans le sous-bois[12] des forêts ripicoles, forêts de plaine et de montagne, à 100-800 m d'altitude[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palicourea alba est une petite herbe rampante mimétique dont les feuilles brun violet (en raison de la présence d'anthocyanes) ont une couleur très proche de celle de la litière en décomposition, qui pousse dans le sous-bois des forêts ripicoles, forêts de plaine et de montagne, à 100-800 m d'altitude.
 </t>
         </is>
       </c>
@@ -614,10 +632,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, les Créoles et les Saramaka le considèrent comme un alexitère majeur pour les personnes travaillant en forêt : les feuilles sont mises en cataplasme sur les morsures de serpents venimeux (ex : Bothrops atrox, Lachesis muta). Les Wayãpi en font un bain fébrifuge[5].
-Palicourea alba est considéré comme une plante magique en Winti au Suriname : elle est censée avoir la propriété de rendre les personnes ou les objets invisibles, ce qui explique sa popularité auprès des trafiquants de cocaïne et explique son prix très élevé sur le marché[13],[14],[15], et qui fait qu'elle est considérée comme vulnérable à une sur-collecte dans son milieu naturel[16],[17].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, les Créoles et les Saramaka le considèrent comme un alexitère majeur pour les personnes travaillant en forêt : les feuilles sont mises en cataplasme sur les morsures de serpents venimeux (ex : Bothrops atrox, Lachesis muta). Les Wayãpi en font un bain fébrifuge.
+Palicourea alba est considéré comme une plante magique en Winti au Suriname : elle est censée avoir la propriété de rendre les personnes ou les objets invisibles, ce qui explique sa popularité auprès des trafiquants de cocaïne et explique son prix très élevé sur le marché et qui fait qu'elle est considérée comme vulnérable à une sur-collecte dans son milieu naturel,.
 </t>
         </is>
       </c>
@@ -646,9 +666,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea alba sous le nom de Tapogomea alba et en a proposé le protologue suivant[18] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a premièrement décrit Palicourea alba sous le nom de Tapogomea alba et en a proposé le protologue suivant : 
 « 4. TAPOGOMEA (alba) caulibus decumbentibus ; foliis ovatis ; ſuprà partim viridibus, partim rubeſcentibus, ſubtùs cinereis. (Tabula 61. Fig.4.)
 Differt à précédenti, foliis petiolatis, ſubrotundis, glabris, ſupernè media parte virentibus, verſus apicem purpuraſcentibus, internè candicantibus ; floribus purpureis aut albis ; fructu rubro.
 Florebat eodem tempore, &amp; habitat in iiſdem locis.
